--- a/sector_order.xlsx
+++ b/sector_order.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwieland\Desktop\GitHub\CE-Review_evidence_plot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA12108-134A-4057-A4F5-D36934656AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CBD887-E91E-4257-AE1C-391AF71DF0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new_grouping" sheetId="1" r:id="rId1"/>
     <sheet name="new_grouping_aggregate" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>economy-wide</t>
   </si>
@@ -77,6 +88,9 @@
   </si>
   <si>
     <t>order</t>
+  </si>
+  <si>
+    <t>energy/waste/transport</t>
   </si>
 </sst>
 </file>
@@ -405,7 +419,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -496,9 +512,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FBD616-E881-4F2A-9068-5ED4616B2D10}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -514,26 +532,16 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
         <v>0</v>
       </c>
     </row>
